--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Il13</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.352247</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N2">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O2">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P2">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q2">
-        <v>6.038323395852999</v>
+        <v>4.158692895448</v>
       </c>
       <c r="R2">
-        <v>36.229940375118</v>
+        <v>24.952157372688</v>
       </c>
       <c r="S2">
-        <v>0.2415189642606735</v>
+        <v>0.1254961834803654</v>
       </c>
       <c r="T2">
-        <v>0.1768487108054954</v>
+        <v>0.1043503370716329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.352247</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.704871</v>
       </c>
       <c r="O3">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P3">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q3">
         <v>0.06672618834855555</v>
@@ -641,10 +641,10 @@
         <v>0.600535695137</v>
       </c>
       <c r="S3">
-        <v>0.002668893141774033</v>
+        <v>0.002013585082250624</v>
       </c>
       <c r="T3">
-        <v>0.002931386648116022</v>
+        <v>0.0025114502636027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.352247</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N4">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O4">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P4">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q4">
-        <v>6.258406656097555</v>
+        <v>7.726530508674443</v>
       </c>
       <c r="R4">
-        <v>56.32565990487799</v>
+        <v>69.53877457806999</v>
       </c>
       <c r="S4">
-        <v>0.2503217854381353</v>
+        <v>0.2331622254301594</v>
       </c>
       <c r="T4">
-        <v>0.2749416707924686</v>
+        <v>0.2908123116725999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.352247</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N5">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O5">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P5">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q5">
-        <v>0.6780037927354999</v>
+        <v>1.936979540935833</v>
       </c>
       <c r="R5">
-        <v>4.068022756413</v>
+        <v>11.621877245615</v>
       </c>
       <c r="S5">
-        <v>0.02711858293292921</v>
+        <v>0.05845190928454234</v>
       </c>
       <c r="T5">
-        <v>0.01985718365943388</v>
+        <v>0.04860288390584246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.352247</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N6">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O6">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P6">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q6">
-        <v>3.554765179116667</v>
+        <v>3.217644761176222</v>
       </c>
       <c r="R6">
-        <v>31.99288661205</v>
+        <v>28.958802850586</v>
       </c>
       <c r="S6">
-        <v>0.14218238208967</v>
+        <v>0.09709833052717098</v>
       </c>
       <c r="T6">
-        <v>0.1561664384127215</v>
+        <v>0.1211061950882558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.352247</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N7">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O7">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P7">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q7">
-        <v>8.405221006936445</v>
+        <v>4.568576545654333</v>
       </c>
       <c r="R7">
-        <v>75.64698906242799</v>
+        <v>41.117188910889</v>
       </c>
       <c r="S7">
-        <v>0.3361893921368179</v>
+        <v>0.1378651741861228</v>
       </c>
       <c r="T7">
-        <v>0.3692546096817647</v>
+        <v>0.1719527677789356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.062095</v>
+      </c>
+      <c r="H8">
+        <v>0.12419</v>
+      </c>
+      <c r="I8">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J8">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>35.418552</v>
+      </c>
+      <c r="N8">
+        <v>70.837104</v>
+      </c>
+      <c r="O8">
+        <v>0.1918645458500658</v>
+      </c>
+      <c r="P8">
+        <v>0.1411406244578309</v>
+      </c>
+      <c r="Q8">
+        <v>2.19931498644</v>
+      </c>
+      <c r="R8">
+        <v>8.797259945759999</v>
+      </c>
+      <c r="S8">
+        <v>0.06636836236970044</v>
+      </c>
+      <c r="T8">
+        <v>0.03679028738619802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.062095</v>
+      </c>
+      <c r="H9">
+        <v>0.12419</v>
+      </c>
+      <c r="I9">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J9">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5682903333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.704871</v>
+      </c>
+      <c r="O9">
+        <v>0.00307846483153751</v>
+      </c>
+      <c r="P9">
+        <v>0.003396899985635307</v>
+      </c>
+      <c r="Q9">
+        <v>0.03528798824833333</v>
+      </c>
+      <c r="R9">
+        <v>0.21172792949</v>
+      </c>
+      <c r="S9">
+        <v>0.001064879749286885</v>
+      </c>
+      <c r="T9">
+        <v>0.000885449722032606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.062095</v>
+      </c>
+      <c r="H10">
+        <v>0.12419</v>
+      </c>
+      <c r="I10">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J10">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>65.80493666666666</v>
+      </c>
+      <c r="N10">
+        <v>197.41481</v>
+      </c>
+      <c r="O10">
+        <v>0.356469521629296</v>
+      </c>
+      <c r="P10">
+        <v>0.3933425844261512</v>
+      </c>
+      <c r="Q10">
+        <v>4.086157542316666</v>
+      </c>
+      <c r="R10">
+        <v>24.5169452539</v>
+      </c>
+      <c r="S10">
+        <v>0.1233072961991366</v>
+      </c>
+      <c r="T10">
+        <v>0.1025302727535513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.062095</v>
+      </c>
+      <c r="H11">
+        <v>0.12419</v>
+      </c>
+      <c r="I11">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J11">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.4967725</v>
+      </c>
+      <c r="N11">
+        <v>32.993545</v>
+      </c>
+      <c r="O11">
+        <v>0.08936406445143084</v>
+      </c>
+      <c r="P11">
+        <v>0.06573856469877065</v>
+      </c>
+      <c r="Q11">
+        <v>1.0243670883875</v>
+      </c>
+      <c r="R11">
+        <v>4.097468353549999</v>
+      </c>
+      <c r="S11">
+        <v>0.0309121551668885</v>
+      </c>
+      <c r="T11">
+        <v>0.01713568079292819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.062095</v>
+      </c>
+      <c r="H12">
+        <v>0.12419</v>
+      </c>
+      <c r="I12">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J12">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.40387933333333</v>
+      </c>
+      <c r="N12">
+        <v>82.21163799999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1484485549499597</v>
+      </c>
+      <c r="P12">
+        <v>0.1638040132897181</v>
+      </c>
+      <c r="Q12">
+        <v>1.701643887203333</v>
+      </c>
+      <c r="R12">
+        <v>10.20986332322</v>
+      </c>
+      <c r="S12">
+        <v>0.05135022442278869</v>
+      </c>
+      <c r="T12">
+        <v>0.0426978182014623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.062095</v>
+      </c>
+      <c r="H13">
+        <v>0.12419</v>
+      </c>
+      <c r="I13">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J13">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>38.909429</v>
+      </c>
+      <c r="N13">
+        <v>116.728287</v>
+      </c>
+      <c r="O13">
+        <v>0.2107748482877103</v>
+      </c>
+      <c r="P13">
+        <v>0.232577313141894</v>
+      </c>
+      <c r="Q13">
+        <v>2.416080993755</v>
+      </c>
+      <c r="R13">
+        <v>14.49648596253</v>
+      </c>
+      <c r="S13">
+        <v>0.07290967410158751</v>
+      </c>
+      <c r="T13">
+        <v>0.0606245453629584</v>
       </c>
     </row>
   </sheetData>
